--- a/Class-6/apple2.xlsx
+++ b/Class-6/apple2.xlsx
@@ -1455,7 +1455,7 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>211.9600067138672</v>
+        <v>212.12890625</v>
       </c>
       <c r="C51" t="n">
         <v>216.8394012451172</v>
@@ -1467,7 +1467,7 @@
         <v>215.9400024414062</v>
       </c>
       <c r="F51" t="n">
-        <v>39331400</v>
+        <v>39435224</v>
       </c>
     </row>
   </sheetData>

--- a/Class-6/apple2.xlsx
+++ b/Class-6/apple2.xlsx
@@ -1447,7 +1447,7 @@
         <v>220.1399993896484</v>
       </c>
       <c r="F50" t="n">
-        <v>62466400</v>
+        <v>62547500</v>
       </c>
     </row>
     <row r="51">
@@ -1455,19 +1455,19 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>212.12890625</v>
+        <v>210.2700042724609</v>
       </c>
       <c r="C51" t="n">
         <v>216.8394012451172</v>
       </c>
       <c r="D51" t="n">
-        <v>210.5001068115234</v>
+        <v>210.2200927734375</v>
       </c>
       <c r="E51" t="n">
         <v>215.9400024414062</v>
       </c>
       <c r="F51" t="n">
-        <v>39435224</v>
+        <v>42789556</v>
       </c>
     </row>
   </sheetData>
